--- a/output.xlsx
+++ b/output.xlsx
@@ -1,82 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>Predicted</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>Failure</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,7 +366,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -477,31 +412,41 @@
       <c r="P1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>32.67</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
       </c>
       <c r="F2" t="n">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -509,8 +454,10 @@
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>5</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
       </c>
       <c r="K2" t="n">
         <v>5.25</v>
@@ -527,32 +474,46 @@
       <c r="O2" t="n">
         <v>154</v>
       </c>
-      <c r="P2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="C3" t="n">
         <v>20.08</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="F3" t="n">
         <v>0.125</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>768</v>
@@ -560,8 +521,10 @@
       <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>10</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -578,34 +541,46 @@
       <c r="O3" t="n">
         <v>240</v>
       </c>
-      <c r="P3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>20.08</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="F4" t="n">
         <v>0.25</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -613,8 +588,10 @@
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>10</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
       </c>
       <c r="K4" t="n">
         <v>0.125</v>
@@ -631,34 +608,46 @@
       <c r="O4" t="n">
         <v>200</v>
       </c>
-      <c r="P4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>22.17</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="F5" t="n">
         <v>2.25</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -666,8 +655,10 @@
       <c r="I5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>10</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
       </c>
       <c r="K5" t="n">
         <v>0.125</v>
@@ -684,34 +675,46 @@
       <c r="O5" t="n">
         <v>160</v>
       </c>
-      <c r="P5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>27.25</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="F6" t="n">
         <v>0.29</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>108</v>
@@ -719,8 +722,10 @@
       <c r="I6" t="b">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>5</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
       </c>
       <c r="K6" t="n">
         <v>0.125</v>
@@ -737,34 +742,46 @@
       <c r="O6" t="n">
         <v>272</v>
       </c>
-      <c r="P6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>31.58</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
       </c>
       <c r="F7" t="n">
         <v>0.75</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -772,8 +789,10 @@
       <c r="I7" t="b">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>10</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
       </c>
       <c r="K7" t="n">
         <v>3.5</v>
@@ -790,34 +809,46 @@
       <c r="O7" t="n">
         <v>320</v>
       </c>
-      <c r="P7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>20.83</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="F8" t="n">
         <v>8.5</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
       </c>
       <c r="H8" t="n">
         <v>351</v>
@@ -825,8 +856,10 @@
       <c r="I8" t="b">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>10</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
       </c>
       <c r="K8" t="n">
         <v>0.165</v>
@@ -843,34 +876,46 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
-      <c r="P8" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>48.08</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="F9" t="n">
         <v>3.75</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -878,8 +923,10 @@
       <c r="I9" t="b">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>17</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>bb</t>
+        </is>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -896,34 +943,46 @@
       <c r="O9" t="n">
         <v>100</v>
       </c>
-      <c r="P9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>29.83</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="F10" t="n">
         <v>3.5</v>
       </c>
-      <c r="G10" t="s">
-        <v>16</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -931,8 +990,10 @@
       <c r="I10" t="b">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
-        <v>10</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
       </c>
       <c r="K10" t="n">
         <v>0.165</v>
@@ -949,34 +1010,46 @@
       <c r="O10" t="n">
         <v>216</v>
       </c>
-      <c r="P10" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>41.58</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="F11" t="n">
         <v>1.04</v>
       </c>
-      <c r="G11" t="s">
-        <v>15</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>237</v>
@@ -984,8 +1057,10 @@
       <c r="I11" t="b">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
-        <v>10</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
       </c>
       <c r="K11" t="n">
         <v>0.665</v>
@@ -1002,34 +1077,46 @@
       <c r="O11" t="n">
         <v>240</v>
       </c>
-      <c r="P11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>33.17</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="F12" t="n">
         <v>1.04</v>
       </c>
-      <c r="G12" t="s">
-        <v>18</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
       </c>
       <c r="H12" t="n">
         <v>31285</v>
@@ -1037,8 +1124,10 @@
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>5</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
       </c>
       <c r="K12" t="n">
         <v>6.5</v>
@@ -1055,34 +1144,46 @@
       <c r="O12" t="n">
         <v>164</v>
       </c>
-      <c r="P12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>18.92</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="F13" t="n">
         <v>9</v>
       </c>
-      <c r="G13" t="s">
-        <v>15</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
       </c>
       <c r="H13" t="n">
         <v>591</v>
@@ -1090,8 +1191,10 @@
       <c r="I13" t="b">
         <v>1</v>
       </c>
-      <c r="J13" t="s">
-        <v>10</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
       </c>
       <c r="K13" t="n">
         <v>0.75</v>
@@ -1108,34 +1211,46 @@
       <c r="O13" t="n">
         <v>88</v>
       </c>
-      <c r="P13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>24.75</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="s">
-        <v>9</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
       </c>
       <c r="H14" t="n">
         <v>500</v>
@@ -1143,8 +1258,10 @@
       <c r="I14" t="b">
         <v>1</v>
       </c>
-      <c r="J14" t="s">
-        <v>5</v>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
       </c>
       <c r="K14" t="n">
         <v>1.835</v>
@@ -1161,34 +1278,46 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
-      <c r="P14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
       </c>
       <c r="F15" t="n">
         <v>4.79</v>
       </c>
-      <c r="G15" t="s">
-        <v>4</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
       </c>
       <c r="H15" t="n">
         <v>300</v>
@@ -1196,8 +1325,10 @@
       <c r="I15" t="b">
         <v>1</v>
       </c>
-      <c r="J15" t="s">
-        <v>10</v>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
       </c>
       <c r="K15" t="n">
         <v>2.25</v>
@@ -1214,11 +1345,15 @@
       <c r="O15" t="n">
         <v>80</v>
       </c>
-      <c r="P15" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>19</v>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
       </c>
     </row>
   </sheetData>
